--- a/Data/Population/population-change-data-table.xlsx
+++ b/Data/Population/population-change-data-table.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\it171oafs-oa14.boc.ad.census.gov\POP_Share\Shared\2020 Apportionment\results\transfer\public\PIO and CNMP\Webpage files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daanmichel/TU Delft/TIL Programming/big-project/Data/Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5909F7C-5EB8-4E22-B869-67A819E3A96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF6BA1-2458-4544-BD87-381D3589F2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{9C74A265-A2F8-4966-86E6-C915CB15A59A}"/>
+    <workbookView xWindow="1140" yWindow="760" windowWidth="25820" windowHeight="17700" activeTab="1" xr2:uid="{9C74A265-A2F8-4966-86E6-C915CB15A59A}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Change" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Population Change'!$A$1:$AA$64</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="106">
   <si>
     <t>U.S. Department of Commerce</t>
   </si>
@@ -653,6 +654,9 @@
   <si>
     <t>Page 1 of 3</t>
   </si>
+  <si>
+    <t>State</t>
+  </si>
 </sst>
 </file>
 
@@ -661,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -679,6 +683,12 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -851,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -879,8 +889,32 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,36 +931,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,203 +1256,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C5C119-8357-4FC4-8FE6-6AB566168CDC}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.3046875" customWidth="1"/>
-    <col min="2" max="2" width="13.3828125" customWidth="1"/>
-    <col min="3" max="3" width="10.84375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.3828125" customWidth="1"/>
-    <col min="5" max="5" width="10.84375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.3828125" customWidth="1"/>
-    <col min="7" max="7" width="10.84375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.3828125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.3046875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.3828125" customWidth="1"/>
-    <col min="12" max="12" width="10.84375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="13.3828125" customWidth="1"/>
-    <col min="14" max="14" width="10.84375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="13.3828125" customWidth="1"/>
-    <col min="16" max="16" width="10.84375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="13.3828125" customWidth="1"/>
-    <col min="18" max="18" width="10.84375" style="10" customWidth="1"/>
-    <col min="19" max="19" width="17.3046875" customWidth="1"/>
-    <col min="20" max="20" width="13.3828125" customWidth="1"/>
-    <col min="21" max="21" width="10.84375" style="10" customWidth="1"/>
-    <col min="22" max="22" width="13.3828125" customWidth="1"/>
-    <col min="23" max="23" width="10.84375" style="10" customWidth="1"/>
-    <col min="24" max="24" width="13.3828125" customWidth="1"/>
-    <col min="25" max="25" width="10.84375" style="10" customWidth="1"/>
-    <col min="26" max="26" width="13.3828125" customWidth="1"/>
-    <col min="27" max="27" width="10.84375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-    </row>
-    <row r="2" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-    </row>
-    <row r="3" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+    </row>
+    <row r="3" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-    </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+    </row>
+    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="22"/>
+      <c r="M4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="25" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="25" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="26" t="s">
+      <c r="R4" s="22"/>
+      <c r="S4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19" t="s">
+      <c r="W4" s="22"/>
+      <c r="X4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="20" t="s">
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="20"/>
-    </row>
-    <row r="5" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="AA4" s="28"/>
+    </row>
+    <row r="5" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1477,7 @@
       <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1502,7 @@
       <c r="R5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="27"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -1598,7 +1611,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -1764,7 +1777,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1847,7 +1860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -1930,7 +1943,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -2096,7 +2109,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2262,7 +2275,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2345,7 +2358,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
@@ -2511,7 +2524,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2594,7 +2607,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -2677,7 +2690,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2760,7 +2773,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
@@ -2926,7 +2939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
@@ -3009,7 +3022,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -3175,7 +3188,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
@@ -3341,7 +3354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -3507,7 +3520,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -3673,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -3756,7 +3769,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -3839,7 +3852,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -4005,7 +4018,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
@@ -4088,7 +4101,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>74</v>
       </c>
@@ -4171,7 +4184,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
@@ -4254,7 +4267,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
@@ -4337,7 +4350,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>77</v>
       </c>
@@ -4420,7 +4433,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
@@ -4503,7 +4516,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -4586,7 +4599,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
@@ -4669,7 +4682,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>81</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>82</v>
       </c>
@@ -4835,7 +4848,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -4918,7 +4931,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -5001,7 +5014,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -5084,7 +5097,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>86</v>
       </c>
@@ -5167,7 +5180,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
@@ -5250,7 +5263,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -5333,7 +5346,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
@@ -5416,7 +5429,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
@@ -5499,7 +5512,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>91</v>
       </c>
@@ -5582,7 +5595,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>92</v>
       </c>
@@ -5665,7 +5678,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>93</v>
       </c>
@@ -5748,7 +5761,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="14.15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>94</v>
       </c>
@@ -5831,7 +5844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>96</v>
       </c>
@@ -5914,7 +5927,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>97</v>
       </c>
@@ -5997,7 +6010,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>98</v>
       </c>
@@ -6080,7 +6093,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>99</v>
       </c>
@@ -6163,7 +6176,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>100</v>
       </c>
@@ -6246,84 +6259,74 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
+    <row r="63" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="22" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22" t="s">
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-    </row>
-    <row r="64" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+    </row>
+    <row r="64" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="31"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="31"/>
+      <c r="AA64" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S3:AA3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R2"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
@@ -6340,9 +6343,3912 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S3:AA3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0" footer="0.5"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26DF71-6940-1749-8A59-1AD9B8611C48}">
+  <dimension ref="A1:AY52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="35">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="35">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="35">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="35">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="35">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="35">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="35">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="35">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="35">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="35">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="35">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="35">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="35">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="35">
+        <v>2014</v>
+      </c>
+      <c r="Q1" s="35">
+        <v>2015</v>
+      </c>
+      <c r="R1" s="35">
+        <v>2016</v>
+      </c>
+      <c r="S1" s="35">
+        <v>2017</v>
+      </c>
+      <c r="T1" s="35">
+        <v>2018</v>
+      </c>
+      <c r="U1" s="35">
+        <v>2019</v>
+      </c>
+      <c r="V1" s="35">
+        <v>2020</v>
+      </c>
+      <c r="W1" s="35">
+        <v>2021</v>
+      </c>
+      <c r="X1" s="35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="J2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="K2" s="7">
+        <v>4447100</v>
+      </c>
+      <c r="L2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="N2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="O2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="P2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="R2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="S2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="T2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="U2" s="7">
+        <v>4779736</v>
+      </c>
+      <c r="V2" s="5">
+        <v>5024279</v>
+      </c>
+      <c r="W2" s="5">
+        <v>5024279</v>
+      </c>
+      <c r="X2" s="5">
+        <v>5024279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="C3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="D3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="E3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="F3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="G3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="H3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="I3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="J3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="K3" s="7">
+        <v>626932</v>
+      </c>
+      <c r="L3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="M3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="N3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="O3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="P3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="R3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="S3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="T3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="U3" s="7">
+        <v>710231</v>
+      </c>
+      <c r="V3" s="5">
+        <v>733391</v>
+      </c>
+      <c r="W3" s="5">
+        <v>733391</v>
+      </c>
+      <c r="X3" s="5">
+        <v>733391</v>
+      </c>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5130632</v>
+      </c>
+      <c r="L4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="O4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="P4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="R4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="S4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="T4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="U4" s="7">
+        <v>6392017</v>
+      </c>
+      <c r="V4" s="5">
+        <v>7151502</v>
+      </c>
+      <c r="W4" s="5">
+        <v>7151502</v>
+      </c>
+      <c r="X4" s="5">
+        <v>7151502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2673400</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="O5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="S5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="T5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="U5" s="7">
+        <v>2915918</v>
+      </c>
+      <c r="V5" s="5">
+        <v>3011524</v>
+      </c>
+      <c r="W5" s="5">
+        <v>3011524</v>
+      </c>
+      <c r="X5" s="5">
+        <v>3011524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="C6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="E6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="F6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="G6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="H6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="I6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="J6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="K6" s="7">
+        <v>33871648</v>
+      </c>
+      <c r="L6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="M6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="N6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="O6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="P6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="R6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="S6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="T6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="U6" s="7">
+        <v>37253956</v>
+      </c>
+      <c r="V6" s="5">
+        <v>39538223</v>
+      </c>
+      <c r="W6" s="5">
+        <v>39538223</v>
+      </c>
+      <c r="X6" s="5">
+        <v>39538223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4301261</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="O7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="P7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="R7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="S7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="T7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="U7" s="7">
+        <v>5029196</v>
+      </c>
+      <c r="V7" s="5">
+        <v>5773714</v>
+      </c>
+      <c r="W7" s="5">
+        <v>5773714</v>
+      </c>
+      <c r="X7" s="5">
+        <v>5773714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3405565</v>
+      </c>
+      <c r="L8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="O8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="P8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="R8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="S8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="T8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="U8" s="7">
+        <v>3574097</v>
+      </c>
+      <c r="V8" s="5">
+        <v>3605944</v>
+      </c>
+      <c r="W8" s="5">
+        <v>3605944</v>
+      </c>
+      <c r="X8" s="5">
+        <v>3605944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="C9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="D9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="E9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="F9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="G9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="H9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="I9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="J9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="K9" s="7">
+        <v>783600</v>
+      </c>
+      <c r="L9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="M9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="N9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="O9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="P9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="R9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="S9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="T9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="U9" s="7">
+        <v>897934</v>
+      </c>
+      <c r="V9" s="5">
+        <v>989948</v>
+      </c>
+      <c r="W9" s="5">
+        <v>989948</v>
+      </c>
+      <c r="X9" s="5">
+        <v>989948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="C10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="D10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="E10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="F10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="G10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="H10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="I10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="J10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="K10" s="7">
+        <v>572059</v>
+      </c>
+      <c r="L10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="M10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="N10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="O10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="P10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="R10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="S10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="T10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="U10" s="7">
+        <v>601723</v>
+      </c>
+      <c r="V10" s="5">
+        <v>689545</v>
+      </c>
+      <c r="W10" s="5">
+        <v>689545</v>
+      </c>
+      <c r="X10" s="5">
+        <v>689545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="C11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="E11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="F11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="G11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="J11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="K11" s="7">
+        <v>15982378</v>
+      </c>
+      <c r="L11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="M11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="N11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="O11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="P11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="R11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="S11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="T11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="U11" s="7">
+        <v>18801310</v>
+      </c>
+      <c r="V11" s="5">
+        <v>21538187</v>
+      </c>
+      <c r="W11" s="5">
+        <v>21538187</v>
+      </c>
+      <c r="X11" s="5">
+        <v>21538187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="J12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="K12" s="7">
+        <v>8186453</v>
+      </c>
+      <c r="L12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="O12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="P12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="R12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="S12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="T12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="U12" s="7">
+        <v>9687653</v>
+      </c>
+      <c r="V12" s="5">
+        <v>10711908</v>
+      </c>
+      <c r="W12" s="5">
+        <v>10711908</v>
+      </c>
+      <c r="X12" s="5">
+        <v>10711908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1211537</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="U13" s="7">
+        <v>1360301</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1455271</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1455271</v>
+      </c>
+      <c r="X13" s="5">
+        <v>1455271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1293953</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="S14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1567582</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1839106</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1839106</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1839106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="E15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="F15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="G15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="H15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="I15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="J15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="K15" s="7">
+        <v>12419293</v>
+      </c>
+      <c r="L15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="M15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="N15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="O15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="P15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="R15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="S15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="T15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="U15" s="7">
+        <v>12830632</v>
+      </c>
+      <c r="V15" s="5">
+        <v>12812508</v>
+      </c>
+      <c r="W15" s="5">
+        <v>12812508</v>
+      </c>
+      <c r="X15" s="5">
+        <v>12812508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="K16" s="7">
+        <v>6080485</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="O16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="P16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="R16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="S16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="T16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="U16" s="7">
+        <v>6483802</v>
+      </c>
+      <c r="V16" s="5">
+        <v>6785528</v>
+      </c>
+      <c r="W16" s="5">
+        <v>6785528</v>
+      </c>
+      <c r="X16" s="5">
+        <v>6785528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2926324</v>
+      </c>
+      <c r="L17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="O17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="P17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="R17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="S17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="T17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="U17" s="7">
+        <v>3046355</v>
+      </c>
+      <c r="V17" s="5">
+        <v>3190369</v>
+      </c>
+      <c r="W17" s="5">
+        <v>3190369</v>
+      </c>
+      <c r="X17" s="5">
+        <v>3190369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2688418</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="R18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="S18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="T18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="U18" s="7">
+        <v>2853118</v>
+      </c>
+      <c r="V18" s="5">
+        <v>2937880</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2937880</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2937880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="G19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="K19" s="7">
+        <v>4041769</v>
+      </c>
+      <c r="L19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="O19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="P19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="R19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="S19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="T19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="U19" s="7">
+        <v>4339367</v>
+      </c>
+      <c r="V19" s="5">
+        <v>4505836</v>
+      </c>
+      <c r="W19" s="5">
+        <v>4505836</v>
+      </c>
+      <c r="X19" s="5">
+        <v>4505836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4468976</v>
+      </c>
+      <c r="L20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="O20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="P20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="R20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="S20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="T20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="U20" s="7">
+        <v>4533372</v>
+      </c>
+      <c r="V20" s="5">
+        <v>4657757</v>
+      </c>
+      <c r="W20" s="5">
+        <v>4657757</v>
+      </c>
+      <c r="X20" s="5">
+        <v>4657757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1274923</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="R21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="S21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="U21" s="7">
+        <v>1328361</v>
+      </c>
+      <c r="V21" s="5">
+        <v>1362359</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1362359</v>
+      </c>
+      <c r="X21" s="5">
+        <v>1362359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="J22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5296486</v>
+      </c>
+      <c r="L22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="O22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="P22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="R22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="S22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="T22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="U22" s="7">
+        <v>5773552</v>
+      </c>
+      <c r="V22" s="5">
+        <v>6177224</v>
+      </c>
+      <c r="W22" s="5">
+        <v>6177224</v>
+      </c>
+      <c r="X22" s="5">
+        <v>6177224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="E23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="F23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="J23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="K23" s="7">
+        <v>6349097</v>
+      </c>
+      <c r="L23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="M23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="O23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="P23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="R23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="S23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="T23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="U23" s="7">
+        <v>6547629</v>
+      </c>
+      <c r="V23" s="5">
+        <v>7029917</v>
+      </c>
+      <c r="W23" s="5">
+        <v>7029917</v>
+      </c>
+      <c r="X23" s="5">
+        <v>7029917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="F24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="G24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="H24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="I24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="J24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="K24" s="7">
+        <v>9938444</v>
+      </c>
+      <c r="L24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="M24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="N24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="O24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="P24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="R24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="S24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="T24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="U24" s="7">
+        <v>9883640</v>
+      </c>
+      <c r="V24" s="5">
+        <v>10077331</v>
+      </c>
+      <c r="W24" s="5">
+        <v>10077331</v>
+      </c>
+      <c r="X24" s="5">
+        <v>10077331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="G25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4919479</v>
+      </c>
+      <c r="L25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="O25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="P25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="R25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="S25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="T25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="U25" s="7">
+        <v>5303925</v>
+      </c>
+      <c r="V25" s="5">
+        <v>5706494</v>
+      </c>
+      <c r="W25" s="5">
+        <v>5706494</v>
+      </c>
+      <c r="X25" s="5">
+        <v>5706494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="J26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2844658</v>
+      </c>
+      <c r="L26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="P26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="R26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="S26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="T26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="U26" s="7">
+        <v>2967297</v>
+      </c>
+      <c r="V26" s="5">
+        <v>2961279</v>
+      </c>
+      <c r="W26" s="5">
+        <v>2961279</v>
+      </c>
+      <c r="X26" s="5">
+        <v>2961279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="C27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="D27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="G27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5595211</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="N27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="O27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="P27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="R27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="S27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="T27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="U27" s="7">
+        <v>5988927</v>
+      </c>
+      <c r="V27" s="5">
+        <v>6154913</v>
+      </c>
+      <c r="W27" s="5">
+        <v>6154913</v>
+      </c>
+      <c r="X27" s="5">
+        <v>6154913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="C28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="D28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="E28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="F28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="G28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="H28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="I28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="J28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="K28" s="7">
+        <v>902195</v>
+      </c>
+      <c r="L28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="M28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="N28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="O28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="P28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="R28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="S28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="T28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="U28" s="7">
+        <v>989415</v>
+      </c>
+      <c r="V28" s="5">
+        <v>1084225</v>
+      </c>
+      <c r="W28" s="5">
+        <v>1084225</v>
+      </c>
+      <c r="X28" s="5">
+        <v>1084225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1711263</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="R29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="U29" s="7">
+        <v>1826341</v>
+      </c>
+      <c r="V29" s="5">
+        <v>1961504</v>
+      </c>
+      <c r="W29" s="5">
+        <v>1961504</v>
+      </c>
+      <c r="X29" s="5">
+        <v>1961504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1998257</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="M30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="P30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="R30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="S30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="T30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="U30" s="7">
+        <v>2700551</v>
+      </c>
+      <c r="V30" s="5">
+        <v>3104614</v>
+      </c>
+      <c r="W30" s="5">
+        <v>3104614</v>
+      </c>
+      <c r="X30" s="5">
+        <v>3104614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1235786</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="R31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="S31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="T31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="U31" s="7">
+        <v>1316470</v>
+      </c>
+      <c r="V31" s="5">
+        <v>1377529</v>
+      </c>
+      <c r="W31" s="5">
+        <v>1377529</v>
+      </c>
+      <c r="X31" s="5">
+        <v>1377529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="E32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="F32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="G32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="I32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="J32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="K32" s="7">
+        <v>8414350</v>
+      </c>
+      <c r="L32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="N32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="O32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="P32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="R32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="S32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="T32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="U32" s="7">
+        <v>8791894</v>
+      </c>
+      <c r="V32" s="5">
+        <v>9288994</v>
+      </c>
+      <c r="W32" s="5">
+        <v>9288994</v>
+      </c>
+      <c r="X32" s="5">
+        <v>9288994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1819046</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="O33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="P33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="R33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="S33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="T33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="U33" s="7">
+        <v>2059179</v>
+      </c>
+      <c r="V33" s="5">
+        <v>2117522</v>
+      </c>
+      <c r="W33" s="5">
+        <v>2117522</v>
+      </c>
+      <c r="X33" s="5">
+        <v>2117522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="C34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="D34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="E34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="F34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="G34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="H34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="I34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="J34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="K34" s="7">
+        <v>18976457</v>
+      </c>
+      <c r="L34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="M34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="N34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="O34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="P34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="R34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="S34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="T34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="U34" s="7">
+        <v>19378102</v>
+      </c>
+      <c r="V34" s="5">
+        <v>20201249</v>
+      </c>
+      <c r="W34" s="5">
+        <v>20201249</v>
+      </c>
+      <c r="X34" s="5">
+        <v>20201249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="C35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="D35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="E35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="F35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="G35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="H35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="I35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="J35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="K35" s="7">
+        <v>8049313</v>
+      </c>
+      <c r="L35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="M35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="N35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="O35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="P35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="R35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="S35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="T35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="U35" s="7">
+        <v>9535483</v>
+      </c>
+      <c r="V35" s="5">
+        <v>10439388</v>
+      </c>
+      <c r="W35" s="5">
+        <v>10439388</v>
+      </c>
+      <c r="X35" s="5">
+        <v>10439388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="C36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="D36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="E36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="F36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="G36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="H36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="I36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="J36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="K36" s="7">
+        <v>642200</v>
+      </c>
+      <c r="L36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="M36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="N36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="O36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="P36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="R36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="S36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="T36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="U36" s="7">
+        <v>672591</v>
+      </c>
+      <c r="V36" s="5">
+        <v>779094</v>
+      </c>
+      <c r="W36" s="5">
+        <v>779094</v>
+      </c>
+      <c r="X36" s="5">
+        <v>779094</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="C37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="D37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="E37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="F37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="G37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="H37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="I37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="J37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="K37" s="7">
+        <v>11353140</v>
+      </c>
+      <c r="L37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="M37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="N37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="O37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="P37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="R37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="S37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="T37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="U37" s="7">
+        <v>11536504</v>
+      </c>
+      <c r="V37" s="5">
+        <v>11799448</v>
+      </c>
+      <c r="W37" s="5">
+        <v>11799448</v>
+      </c>
+      <c r="X37" s="5">
+        <v>11799448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="C38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="F38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="G38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="I38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="J38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="K38" s="7">
+        <v>3450654</v>
+      </c>
+      <c r="L38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="N38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="O38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="P38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="R38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="S38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="T38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="U38" s="7">
+        <v>3751351</v>
+      </c>
+      <c r="V38" s="5">
+        <v>3959353</v>
+      </c>
+      <c r="W38" s="5">
+        <v>3959353</v>
+      </c>
+      <c r="X38" s="5">
+        <v>3959353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="F39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="H39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="I39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="J39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="K39" s="7">
+        <v>3421399</v>
+      </c>
+      <c r="L39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="O39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="P39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="R39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="S39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="T39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="U39" s="7">
+        <v>3831074</v>
+      </c>
+      <c r="V39" s="5">
+        <v>4237256</v>
+      </c>
+      <c r="W39" s="5">
+        <v>4237256</v>
+      </c>
+      <c r="X39" s="5">
+        <v>4237256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="C40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="D40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="E40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="F40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="G40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="H40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="I40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="J40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="K40" s="7">
+        <v>12281054</v>
+      </c>
+      <c r="L40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="M40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="N40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="O40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="P40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="R40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="S40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="T40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="U40" s="7">
+        <v>12702379</v>
+      </c>
+      <c r="V40" s="5">
+        <v>13002700</v>
+      </c>
+      <c r="W40" s="5">
+        <v>13002700</v>
+      </c>
+      <c r="X40" s="5">
+        <v>13002700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1048319</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="O41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="P41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="R41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="S41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="U41" s="7">
+        <v>1052567</v>
+      </c>
+      <c r="V41" s="5">
+        <v>1097379</v>
+      </c>
+      <c r="W41" s="5">
+        <v>1097379</v>
+      </c>
+      <c r="X41" s="5">
+        <v>1097379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="F42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="G42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="I42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="K42" s="7">
+        <v>4012012</v>
+      </c>
+      <c r="L42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="O42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="P42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="R42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="S42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="T42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="U42" s="7">
+        <v>4625364</v>
+      </c>
+      <c r="V42" s="5">
+        <v>5118425</v>
+      </c>
+      <c r="W42" s="5">
+        <v>5118425</v>
+      </c>
+      <c r="X42" s="5">
+        <v>5118425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="C43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="D43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="E43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="F43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="G43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="H43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="I43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="J43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="K43" s="7">
+        <v>754844</v>
+      </c>
+      <c r="L43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="M43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="N43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="O43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="P43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="R43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="S43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="T43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="U43" s="7">
+        <v>814180</v>
+      </c>
+      <c r="V43" s="5">
+        <v>886667</v>
+      </c>
+      <c r="W43" s="5">
+        <v>886667</v>
+      </c>
+      <c r="X43" s="5">
+        <v>886667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="C44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="E44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="G44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="H44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="I44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="J44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="K44" s="7">
+        <v>5689283</v>
+      </c>
+      <c r="L44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="M44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="N44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="O44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="P44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="R44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="S44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="T44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="U44" s="7">
+        <v>6346105</v>
+      </c>
+      <c r="V44" s="5">
+        <v>6910840</v>
+      </c>
+      <c r="W44" s="5">
+        <v>6910840</v>
+      </c>
+      <c r="X44" s="5">
+        <v>6910840</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="C45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="D45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="E45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="F45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="G45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="H45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="I45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="J45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="K45" s="7">
+        <v>20851820</v>
+      </c>
+      <c r="L45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="M45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="N45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="O45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="P45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="R45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="S45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="T45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="U45" s="7">
+        <v>25145561</v>
+      </c>
+      <c r="V45" s="5">
+        <v>29145505</v>
+      </c>
+      <c r="W45" s="5">
+        <v>29145505</v>
+      </c>
+      <c r="X45" s="5">
+        <v>29145505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="J46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2233169</v>
+      </c>
+      <c r="L46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="O46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="P46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="R46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="S46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="T46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="U46" s="7">
+        <v>2763885</v>
+      </c>
+      <c r="V46" s="5">
+        <v>3271616</v>
+      </c>
+      <c r="W46" s="5">
+        <v>3271616</v>
+      </c>
+      <c r="X46" s="5">
+        <v>3271616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="C47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="D47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="E47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="F47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="G47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="H47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="I47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="J47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="K47" s="7">
+        <v>608827</v>
+      </c>
+      <c r="L47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="M47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="N47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="O47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="P47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="R47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="S47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="T47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="U47" s="7">
+        <v>625741</v>
+      </c>
+      <c r="V47" s="5">
+        <v>643077</v>
+      </c>
+      <c r="W47" s="5">
+        <v>643077</v>
+      </c>
+      <c r="X47" s="5">
+        <v>643077</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="C48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="D48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="E48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="F48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="G48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="H48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="I48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="J48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="K48" s="7">
+        <v>7078515</v>
+      </c>
+      <c r="L48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="M48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="N48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="O48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="P48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="R48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="S48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="T48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="U48" s="7">
+        <v>8001024</v>
+      </c>
+      <c r="V48" s="5">
+        <v>8631393</v>
+      </c>
+      <c r="W48" s="5">
+        <v>8631393</v>
+      </c>
+      <c r="X48" s="5">
+        <v>8631393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="C49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="E49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="F49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="G49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="H49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="I49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="J49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="K49" s="7">
+        <v>5894121</v>
+      </c>
+      <c r="L49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="M49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="N49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="O49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="P49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="R49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="S49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="T49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="U49" s="7">
+        <v>6724540</v>
+      </c>
+      <c r="V49" s="5">
+        <v>7705281</v>
+      </c>
+      <c r="W49" s="5">
+        <v>7705281</v>
+      </c>
+      <c r="X49" s="5">
+        <v>7705281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1808344</v>
+      </c>
+      <c r="L50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="O50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="P50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="R50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="S50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="T50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="U50" s="7">
+        <v>1852994</v>
+      </c>
+      <c r="V50" s="5">
+        <v>1793716</v>
+      </c>
+      <c r="W50" s="5">
+        <v>1793716</v>
+      </c>
+      <c r="X50" s="5">
+        <v>1793716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="C51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="D51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="E51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="F51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="G51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="H51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="I51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="J51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="K51" s="7">
+        <v>5363675</v>
+      </c>
+      <c r="L51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="M51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="N51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="O51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="P51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="R51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="S51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="T51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="U51" s="7">
+        <v>5686986</v>
+      </c>
+      <c r="V51" s="5">
+        <v>5893718</v>
+      </c>
+      <c r="W51" s="5">
+        <v>5893718</v>
+      </c>
+      <c r="X51" s="5">
+        <v>5893718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="C52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="D52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="E52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="F52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="G52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="H52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="I52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="J52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="K52" s="7">
+        <v>493782</v>
+      </c>
+      <c r="L52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="M52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="N52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="O52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="P52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="R52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="S52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="T52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="U52" s="7">
+        <v>563626</v>
+      </c>
+      <c r="V52" s="5">
+        <v>576851</v>
+      </c>
+      <c r="W52" s="5">
+        <v>576851</v>
+      </c>
+      <c r="X52" s="5">
+        <v>576851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>